--- a/test/pluto_test.xlsx
+++ b/test/pluto_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>제목</t>
   </si>
@@ -107,6 +107,21 @@
     <t>B120111027_D1_1319746</t>
   </si>
   <si>
+    <t>00:19:41.982</t>
+  </si>
+  <si>
+    <t>00:44:13.987</t>
+  </si>
+  <si>
+    <t>01:18:20.968</t>
+  </si>
+  <si>
+    <t>01:41:41.969</t>
+  </si>
+  <si>
+    <t>02:10:24.992</t>
+  </si>
+  <si>
     <t>/CLIP/COCOS/CAPTION/B120111027/535519dc-29f2-42ff-a761-298cb8009fea.srt</t>
   </si>
   <si>
@@ -162,26 +177,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:00:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:00:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:01:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:01:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:01:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,85 +528,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="22.08203125" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -650,53 +637,53 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>3000</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="1">
+        <v>3083</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="1">
+        <v>3083</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="1">
+        <v>3083</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="2">
-        <v>3000</v>
+      <c r="T3" s="1">
+        <v>3083</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -712,50 +699,50 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>50</v>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>9764731</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1">
         <v>9764731</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1">
         <v>9764731</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1">
         <v>9764731</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T4" s="1">
         <v>9764731</v>
@@ -763,10 +750,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -774,50 +761,100 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3083</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3083</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3083</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3083</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="1">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1">
         <v>3138205</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1">
         <v>3138205</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="1">
         <v>3138205</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="Q6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="1">
         <v>3138205</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="S6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="1">
         <v>3138205</v>
       </c>
     </row>
@@ -841,6 +878,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>